--- a/outputs-HGR-r202/g__Tidjanibacter.xlsx
+++ b/outputs-HGR-r202/g__Tidjanibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11829.fa</t>
+          <t>even_MAG-GUT11521.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12049.fa</t>
+          <t>even_MAG-GUT11638.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13856.fa</t>
+          <t>even_MAG-GUT11829.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14645.fa</t>
+          <t>even_MAG-GUT11847.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36772.fa</t>
+          <t>even_MAG-GUT11977.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -571,6 +571,259 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT12049.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT12082.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT12095.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT12230.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT12257.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT13856.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT14645.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT22830.fa</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT71577.fa</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73862.fa</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77597.fa</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>

--- a/outputs-HGR-r202/g__Tidjanibacter.xlsx
+++ b/outputs-HGR-r202/g__Tidjanibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>s__Tidjanibacter inops_A</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -883,6 +1003,11 @@
         <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>

--- a/outputs-HGR-r202/g__Tidjanibacter.xlsx
+++ b/outputs-HGR-r202/g__Tidjanibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,19 +463,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>-0.6436569182691478</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
@@ -491,19 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>-0.7330660037696655</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2556704787016271</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -537,19 +523,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>-0.4902489294074739</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
@@ -560,19 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>-0.4527672307373223</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>0.3002756663804584</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -602,21 +579,18 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12063.fa</t>
+          <t>even_MAG-GUT12082.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>0.4176294025220848</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -625,44 +599,38 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12082.fa</t>
+          <t>even_MAG-GUT12095.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>-0.1327927749244635</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12095.fa</t>
+          <t>even_MAG-GUT12230.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>0.2688281937663319</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -671,21 +639,18 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12230.fa</t>
+          <t>even_MAG-GUT12257.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>0.2427215487967027</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -694,21 +659,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT12257.fa</t>
+          <t>even_MAG-GUT13856.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>0.3614609929273911</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -717,21 +679,18 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13856.fa</t>
+          <t>even_MAG-GUT14645.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>0.4017307773720455</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -740,21 +699,18 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT14645.fa</t>
+          <t>even_MAG-GUT22830.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>0.008297803116326108</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -763,44 +719,38 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22830.fa</t>
+          <t>even_MAG-GUT71577.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>-0.288702274435769</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2841.fa</t>
+          <t>even_MAG-GUT73862.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>0.4400320284526806</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>s__Tidjanibacter inops_A</t>
         </is>
@@ -809,207 +759,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2873.fa</t>
+          <t>even_MAG-GUT77597.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>-0.1354842670916803</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>s__Tidjanibacter inops_A</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36772.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT36799.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT56345.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT71577.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73862.fa</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77597.fa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT77633.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT85906.fa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>s__Tidjanibacter inops_A</t>
+          <t>s__Tidjanibacter inops_A(reject)</t>
         </is>
       </c>
     </row>
